--- a/data/Variance_measure.xlsx
+++ b/data/Variance_measure.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steph\Desktop\EPFL\MA1\Mobile_Robotics\Project\labyrinth-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B013AEDC-DA6C-470C-8975-FACF5A92F2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C080E7-D558-4AEC-8479-D454BAC0E9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B196F737-E1C9-455E-A86A-5FDF16D0AA94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B196F737-E1C9-455E-A86A-5FDF16D0AA94}"/>
   </bookViews>
   <sheets>
     <sheet name="Right high robot" sheetId="8" r:id="rId1"/>
-    <sheet name="Right low robot" sheetId="7" r:id="rId2"/>
-    <sheet name="Left low robot" sheetId="6" r:id="rId3"/>
-    <sheet name="Left high robot" sheetId="4" r:id="rId4"/>
-    <sheet name="Centered robot" sheetId="1" r:id="rId5"/>
+    <sheet name="Speed" sheetId="9" r:id="rId2"/>
+    <sheet name="speed_camera" sheetId="11" r:id="rId3"/>
+    <sheet name="aruco_positions" sheetId="10" r:id="rId4"/>
+    <sheet name="Right low robot" sheetId="7" r:id="rId5"/>
+    <sheet name="Left low robot" sheetId="6" r:id="rId6"/>
+    <sheet name="Left high robot" sheetId="4" r:id="rId7"/>
+    <sheet name="Centered robot" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Pos x</t>
   </si>
@@ -50,6 +53,30 @@
   </si>
   <si>
     <t>SIGMA^2</t>
+  </si>
+  <si>
+    <t>speed right</t>
+  </si>
+  <si>
+    <t>speed left</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>dist (pix)</t>
+  </si>
+  <si>
+    <t>dist (mm)</t>
+  </si>
+  <si>
+    <t>Conversion factor [mm/pix] :</t>
+  </si>
+  <si>
+    <t>pix/s</t>
   </si>
 </sst>
 </file>
@@ -2282,6 +2309,1460 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Speed!$B$6:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Speed!$C$6:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A51-400D-B48F-3BBEFA3C03A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="653076720"/>
+        <c:axId val="653078032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="653076720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653078032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="653078032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653076720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>speed_camera!$B$3:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>35.205667685751202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.615497266645498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.593005650574799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.549043591835101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.665218661525302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.763582329852198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.918059178075801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.709993322060299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.373703310513299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.410069420595899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.731279759254601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.815799413736599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.9536968902216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.816756989289402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.348584925018201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.054222736433498</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.315742731260499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.9295976669396</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.408036335678297</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.775562171338901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.1958701880225</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38.927928476607697</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.337613858071897</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.1892949319196</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.760855432188102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.841080427451299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.343747246013699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.122794013304201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.4975783229021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.250405637908699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.4608497322156</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.308798904629001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.851646205340899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53.171753758844602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>55.636480270782201</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.904560998527099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.0243900269435</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.802623879210799</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.6588162331924</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44.126744350365399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.943344456495499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.6139378818925</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.553801892400699</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23.3147237314205</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.131880722010202</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23.285895830859499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27.060433946194902</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.105970813566799</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.758972613391901</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.622885740864501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.777625601733398</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.825219699548999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.205885224080699</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36.590809508541099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23.0847083954494</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40.696345847343302</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.280479449736099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.3798559201971</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41.927509008012997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.611815223783601</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.481938984694601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.1674821849533</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.9244124167633</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19.156599584851001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.9908735802263</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18.335455805471501</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48.864171551737797</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.9790920878728</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18.516818480892699</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41.396517325988597</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.622266420536</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37.905394039414404</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.052960665563301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.655048224618101</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46.549796331749398</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.076814507707802</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22.061838847108699</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37.388766183352502</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18.702741401497999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22.125714600857702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34.788954339796398</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18.0946698112467</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>39.028941173753502</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32.881488526305297</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>38.705358847198802</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25.866054764281198</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.1244980286058</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29.475541736942599</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20.4662842617353</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11.900347949045299</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40.079451288802503</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>23.386475287529102</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>25.820263069049801</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>59.3868221678513</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34.076753897508297</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18.571323161340601</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29.9104656867659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05A8-437C-899C-B8C643A5283A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="657473416"/>
+        <c:axId val="657469152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="657473416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657469152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="657469152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657473416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -4432,7 +5913,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6596,7 +8077,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8760,7 +10241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11085,6 +12566,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13704,6 +15265,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13752,6 +16345,88 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC244D2-2B18-41F8-809D-228A727F0BCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6537048-9C5E-4825-A1E8-960DFA673DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -13790,7 +16465,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13833,7 +16508,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13876,7 +16551,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14216,7 +16891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2123AC0E-EED1-4686-8C98-019D8FAE8C2F}">
   <dimension ref="A3:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -15648,6 +18323,1446 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAB8DA2-B733-43B1-BD97-142E53347FC5}">
+  <dimension ref="B2:C104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f>_xlfn.VAR.P(B6:B104)</f>
+        <v>9.320069380675438</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.VAR.P(C6:C104)</f>
+        <v>3.8900112233445543</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>97</v>
+      </c>
+      <c r="C7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>98</v>
+      </c>
+      <c r="C12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>102</v>
+      </c>
+      <c r="C19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>94</v>
+      </c>
+      <c r="C22">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>103</v>
+      </c>
+      <c r="C23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>103</v>
+      </c>
+      <c r="C24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>97</v>
+      </c>
+      <c r="C28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>97</v>
+      </c>
+      <c r="C29">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>96</v>
+      </c>
+      <c r="C32">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>96</v>
+      </c>
+      <c r="C33">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>103</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>103</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>102</v>
+      </c>
+      <c r="C36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>102</v>
+      </c>
+      <c r="C37">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>102</v>
+      </c>
+      <c r="C38">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>102</v>
+      </c>
+      <c r="C40">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>102</v>
+      </c>
+      <c r="C43">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>102</v>
+      </c>
+      <c r="C44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>102</v>
+      </c>
+      <c r="C45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>101</v>
+      </c>
+      <c r="C46">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>101</v>
+      </c>
+      <c r="C47">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>103</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>103</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>97</v>
+      </c>
+      <c r="C53">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>102</v>
+      </c>
+      <c r="C54">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>102</v>
+      </c>
+      <c r="C55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>102</v>
+      </c>
+      <c r="C56">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>102</v>
+      </c>
+      <c r="C57">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>102</v>
+      </c>
+      <c r="C58">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>102</v>
+      </c>
+      <c r="C59">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>95</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>95</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>95</v>
+      </c>
+      <c r="C64">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>95</v>
+      </c>
+      <c r="C65">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>95</v>
+      </c>
+      <c r="C66">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>103</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>103</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>101</v>
+      </c>
+      <c r="C69">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>101</v>
+      </c>
+      <c r="C70">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>101</v>
+      </c>
+      <c r="C71">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>96</v>
+      </c>
+      <c r="C72">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>96</v>
+      </c>
+      <c r="C73">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>102</v>
+      </c>
+      <c r="C74">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>102</v>
+      </c>
+      <c r="C75">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>101</v>
+      </c>
+      <c r="C77">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>96</v>
+      </c>
+      <c r="C78">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>96</v>
+      </c>
+      <c r="C79">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>103</v>
+      </c>
+      <c r="C80">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>103</v>
+      </c>
+      <c r="C81">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>103</v>
+      </c>
+      <c r="C82">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>96</v>
+      </c>
+      <c r="C83">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>97</v>
+      </c>
+      <c r="C84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>97</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>98</v>
+      </c>
+      <c r="C86">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>98</v>
+      </c>
+      <c r="C87">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>97</v>
+      </c>
+      <c r="C88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>99</v>
+      </c>
+      <c r="C90">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>99</v>
+      </c>
+      <c r="C91">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>95</v>
+      </c>
+      <c r="C93">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>101</v>
+      </c>
+      <c r="C94">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>96</v>
+      </c>
+      <c r="C95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>96</v>
+      </c>
+      <c r="C96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>99</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>93</v>
+      </c>
+      <c r="C98">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>93</v>
+      </c>
+      <c r="C99">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>93</v>
+      </c>
+      <c r="C100">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>102</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>102</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F16742-F708-4A97-8F76-DCB81254CB02}">
+  <dimension ref="B3:C102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>35.205667685751202</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>61.615497266645498</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>19.593005650574799</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>17.549043591835101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>22.665218661525302</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>48.763582329852198</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>14.918059178075801</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>23.709993322060299</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>38.373703310513299</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>20.410069420595899</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>22.731279759254601</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>25.815799413736599</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>16.9536968902216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>46.816756989289402</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>21.348584925018201</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>18.054222736433498</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>24.315742731260499</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>21.9295976669396</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>35.408036335678297</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>17.775562171338901</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>20.1958701880225</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>38.927928476607697</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>33.337613858071897</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>15.1892949319196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>38.760855432188102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>18.841080427451299</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>18.343747246013699</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>39.122794013304201</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>20.4975783229021</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>33.250405637908699</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>28.4608497322156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>14.308798904629001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>37.851646205340899</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>53.171753758844602</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>55.636480270782201</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>17.904560998527099</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>21.0243900269435</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>18.802623879210799</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>16.6588162331924</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>44.126744350365399</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>19.943344456495499</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>15.6139378818925</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>25.553801892400699</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>23.3147237314205</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>42.131880722010202</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>23.285895830859499</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>27.060433946194902</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>35.105970813566799</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>18.758972613391901</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>20.622885740864501</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>39.777625601733398</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>18.825219699548999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>18.205885224080699</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>36.590809508541099</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>23.0847083954494</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>40.696345847343302</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>19.280479449736099</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>15.3798559201971</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>41.927509008012997</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>16.611815223783601</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>20.481938984694601</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>36.1674821849533</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>19.9244124167633</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>19.156599584851001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>32.9908735802263</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>18.335455805471501</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>48.864171551737797</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>14.9790920878728</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>18.516818480892699</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>41.396517325988597</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>16.622266420536</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>37.905394039414404</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>23.052960665563301</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>13.655048224618101</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>46.549796331749398</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>18.076814507707802</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>22.061838847108699</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>37.388766183352502</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>18.702741401497999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>22.125714600857702</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>34.788954339796398</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>18.0946698112467</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>39.028941173753502</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>32.881488526305297</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>38.705358847198802</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>25.866054764281198</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>22.1244980286058</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>29.475541736942599</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>20.4662842617353</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>11.900347949045299</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>40.079451288802503</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>23.386475287529102</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>25.820263069049801</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>59.3868221678513</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>34.076753897508297</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>18.571323161340601</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>29.9104656867659</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <f>AVERAGE(B3:B99)</f>
+        <v>27.749045893424558</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063B779D-673C-450A-BB59-EC33B9FBB78E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1048.5</v>
+      </c>
+      <c r="C2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>145.75</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1077</v>
+      </c>
+      <c r="C4">
+        <v>680.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>124.25</v>
+      </c>
+      <c r="C5">
+        <v>687.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f>SQRT((B2-B3)^2+(C2-C3)^2)</f>
+        <v>902.75055386302586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>B9/B8</f>
+        <v>1.2683459401939405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8C897F-D9F8-492B-A5BA-11B314EEC83E}">
   <dimension ref="A3:D105"/>
   <sheetViews>
@@ -17082,7 +21197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096F4B49-3E77-4CEB-A14F-96C055E97605}">
   <dimension ref="A3:D105"/>
   <sheetViews>
@@ -18517,7 +22632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DF139-3FD7-4215-AE65-C1670D5E9DC8}">
   <dimension ref="A3:D105"/>
   <sheetViews>
@@ -19952,7 +24067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AB30BF-831F-47E7-95B8-D24EAD36529B}">
   <dimension ref="A3:D105"/>
   <sheetViews>
